--- a/biology/Zoologie/Apis_mellifera_ruttneri/Apis_mellifera_ruttneri.xlsx
+++ b/biology/Zoologie/Apis_mellifera_ruttneri/Apis_mellifera_ruttneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abeille de Malte
-Apis mellifera ruttneri, l’Abeille de Malte[1], est une sous-espèce de l'Abeille européenne, endémique des îles maltaises situées en mer Méditerranée.
+Apis mellifera ruttneri, l’Abeille de Malte, est une sous-espèce de l'Abeille européenne, endémique des îles maltaises situées en mer Méditerranée.
 Elle n'a été reconnue qu’en 1997 comme sous-espèce indépendante parmi les abeilles noires, les plus proches parents étant l'Abeille de Sicile et Abeille tellienne.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apis mellifera ruttneri est presque noire. Elle présente une résistance relativement élevée aux parasites du genre Varroa.
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Apis mellifera ruttneri a été décrite en 1997 par Walter Steven Sheppard (d), Maria Cristina Arias (d), Anton Grech (d) et Marina Doris Meixner (d)[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Apis mellifera ruttneri a été décrite en 1997 par Walter Steven Sheppard (d), Maria Cristina Arias (d), Anton Grech (d) et Marina Doris Meixner (d),.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète ruttneri lui a été donnée en l'honneur du médecin et entomologiste autrichien Friedrich Ruttner (d) (1914-1998) qui a contribué à la taxonomie des abeilles mellifères[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète ruttneri lui a été donnée en l'honneur du médecin et entomologiste autrichien Friedrich Ruttner (d) (1914-1998) qui a contribué à la taxonomie des abeilles mellifères.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) WS Sheppard, MC Arias, A Grech et MD Meixner, « Apis mellifera ruttneri, a new honey bee subspecies from Malta », Apidologie, Springer Science+Business Media, vol. 28, no 5,‎ 1997, p. 287-293 (ISSN 0044-8435 et 1297-9678, OCLC 474557263, DOI 10.1051/APIDO:19970505, lire en ligne)</t>
         </is>
